--- a/PQ_Challenge_238.xlsx
+++ b/PQ_Challenge_238.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mbieg\Dropbox\GitHub\PowerQueryBitsAndPieces\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A604D8F7-DA36-4779-88D9-BFBD8F42DE52}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FC06EA2C-03FA-4027-BB8E-E22EFC8E3BC5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Original" sheetId="1" r:id="rId1"/>
+    <sheet name="EDU" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191028"/>
   <extLst>
@@ -35,8 +36,30 @@
 </workbook>
 </file>
 
+<file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+  <metadataTypes count="1">
+    <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
+  </metadataTypes>
+  <futureMetadata name="XLDAPR" count="1">
+    <bk>
+      <extLst>
+        <ext uri="{bdbb8cdc-fa1e-496e-a857-3c3f30c029c3}">
+          <xda:dynamicArrayProperties fDynamic="1" fCollapsed="0"/>
+        </ext>
+      </extLst>
+    </bk>
+  </futureMetadata>
+  <cellMetadata count="1">
+    <bk>
+      <rc t="1" v="0"/>
+    </bk>
+  </cellMetadata>
+</metadata>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="14">
   <si>
     <t>Item</t>
   </si>
@@ -101,7 +124,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -118,6 +141,24 @@
       <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor theme="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -249,7 +290,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
@@ -266,6 +307,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -590,6 +634,143 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>107950</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>120650</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>127000</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="Arrow: Right 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{43606A78-A987-4FB9-AFA3-BD1CBE5EA7AB}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1250950" y="499110"/>
+          <a:ext cx="866140" cy="542290"/>
+        </a:xfrm>
+        <a:prstGeom prst="rightArrow">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="92D050"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-IN" sz="1100" b="1"/>
+            <a:t>RESULT</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>400050</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>31750</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>812800</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>165100</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="Arrow: Left 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5C21CFBD-40A8-4089-9D85-CA67DAFB8DB5}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1101090" y="31750"/>
+          <a:ext cx="854710" cy="499110"/>
+        </a:xfrm>
+        <a:prstGeom prst="leftArrow">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FF0000"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-IN" sz="1050" b="1"/>
+            <a:t>PROBLEM</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
@@ -855,8 +1036,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:M12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L3" sqref="L3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="M6" sqref="M6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1044,4 +1225,356 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3DDF738F-4ED6-4523-8E34-10963C2DAD74}">
+  <dimension ref="A1:Q22"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="Q14" sqref="Q14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="4.88671875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="5.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="6.44140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.44140625" customWidth="1"/>
+    <col min="5" max="5" width="4.88671875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.109375" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="11.88671875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A1" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="F1" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="M1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A2" s="1">
+        <v>9001</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E2" s="12">
+        <v>9001</v>
+      </c>
+      <c r="F2" s="13" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A3" s="1">
+        <v>9002</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E3" s="12">
+        <v>9002</v>
+      </c>
+      <c r="F3" s="13" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A4" s="1">
+        <v>9002</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E4" s="12">
+        <v>9003</v>
+      </c>
+      <c r="F4" s="13" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A5" s="1">
+        <v>9003</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E5" s="12">
+        <v>9004</v>
+      </c>
+      <c r="F5" s="13" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A6" s="1">
+        <v>9003</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E6" s="10">
+        <v>9005</v>
+      </c>
+      <c r="F6" s="11" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A7" s="1">
+        <v>9004</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A8" s="1">
+        <v>9004</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A9" s="1">
+        <v>9004</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A10" s="1">
+        <v>9005</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E10" cm="1">
+        <f t="array" ref="E10:E14">_xlfn.UNIQUE(A2:A12)</f>
+        <v>9001</v>
+      </c>
+      <c r="H10">
+        <v>9005</v>
+      </c>
+      <c r="I10" s="16" cm="1">
+        <f t="array" ref="I10:K11">_xlfn._xlws.FILTER(A2:C12,(A2:A12=H10)*(C2:C12="Closed"),NA())</f>
+        <v>9005</v>
+      </c>
+      <c r="J10" s="16" t="str">
+        <v>C</v>
+      </c>
+      <c r="K10" s="16" t="str">
+        <v>Closed</v>
+      </c>
+      <c r="L10" s="17" cm="1">
+        <f t="array" ref="L10:N10">_xlfn._xlws.FILTER(A2:C12,(A2:A12=H10)*(C2:C12="Open"),NA())</f>
+        <v>9005</v>
+      </c>
+      <c r="M10" s="17" t="str">
+        <v>B</v>
+      </c>
+      <c r="N10" s="17" t="str">
+        <v>Open</v>
+      </c>
+      <c r="P10" s="18" t="str">
+        <f>IF(ISNA(I10),"","Closed-| "&amp;ROWS(_xlfn.ANCHORARRAY(I10)))</f>
+        <v>Closed-| 2</v>
+      </c>
+      <c r="Q10" s="18" t="str">
+        <f>IF(ISNA(L10),"","Open-| "&amp;ROWS(_xlfn.ANCHORARRAY(L10)))</f>
+        <v>Open-| 1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A11" s="1">
+        <v>9005</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E11">
+        <v>9002</v>
+      </c>
+      <c r="I11" s="16">
+        <v>9005</v>
+      </c>
+      <c r="J11" s="16" t="str">
+        <v>A</v>
+      </c>
+      <c r="K11" s="16" t="str">
+        <v>Closed</v>
+      </c>
+      <c r="L11" s="17"/>
+      <c r="M11" s="17"/>
+      <c r="N11" s="17"/>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A12" s="4">
+        <v>9005</v>
+      </c>
+      <c r="B12" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C12" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="E12">
+        <v>9003</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="E13">
+        <v>9004</v>
+      </c>
+      <c r="P13" t="str">
+        <f>IF(LEN(Q10)=0,SUBSTITUTE(P10,"|","All"),SUBSTITUTE(P10,"| ",""))</f>
+        <v>Closed-2</v>
+      </c>
+      <c r="Q13" t="str">
+        <f>IF(LEN(P10)=0,SUBSTITUTE(Q10,"|","All"),SUBSTITUTE(Q10,"| ",""))</f>
+        <v>Open-1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="E14">
+        <v>9005</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="P15" t="str">
+        <f>_xlfn.TEXTJOIN(", ",1,Q13,P13)</f>
+        <v>Open-1, Closed-2</v>
+      </c>
+    </row>
+    <row r="17" spans="8:13" x14ac:dyDescent="0.3">
+      <c r="I17" t="str">
+        <f>P15</f>
+        <v>Open-1, Closed-2</v>
+      </c>
+    </row>
+    <row r="18" spans="8:13" x14ac:dyDescent="0.3">
+      <c r="H18" cm="1">
+        <f t="array" ref="H18:H22">_xlfn._xlws.SORT(_xlfn.UNIQUE(A2:A12))</f>
+        <v>9001</v>
+      </c>
+      <c r="I18" t="str">
+        <f t="dataTable" ref="I18:I22" dt2D="0" dtr="0" r1="H10"/>
+        <v>Closed-All 1</v>
+      </c>
+      <c r="L18" t="b" cm="1">
+        <f t="array" ref="L18:M22">H18:I22=E2:F6</f>
+        <v>1</v>
+      </c>
+      <c r="M18" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="8:13" x14ac:dyDescent="0.3">
+      <c r="H19">
+        <v>9002</v>
+      </c>
+      <c r="I19" t="str">
+        <v>Open-1, Closed-1</v>
+      </c>
+      <c r="L19" t="b">
+        <v>1</v>
+      </c>
+      <c r="M19" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="8:13" x14ac:dyDescent="0.3">
+      <c r="H20">
+        <v>9003</v>
+      </c>
+      <c r="I20" t="str">
+        <v>Open-All 2</v>
+      </c>
+      <c r="L20" t="b">
+        <v>1</v>
+      </c>
+      <c r="M20" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="8:13" x14ac:dyDescent="0.3">
+      <c r="H21">
+        <v>9004</v>
+      </c>
+      <c r="I21" t="str">
+        <v>Closed-All 3</v>
+      </c>
+      <c r="L21" t="b">
+        <v>1</v>
+      </c>
+      <c r="M21" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="8:13" x14ac:dyDescent="0.3">
+      <c r="H22">
+        <v>9005</v>
+      </c>
+      <c r="I22" t="str">
+        <v>Open-1, Closed-2</v>
+      </c>
+      <c r="L22" t="b">
+        <v>1</v>
+      </c>
+      <c r="M22" t="b">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>